--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maciejsroczek/Desktop/University/MastersThesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24901879-EFF9-F248-9893-B94496219334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60062D46-BEA2-DB4E-84C6-5D3B8EE1C15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="880" windowWidth="41120" windowHeight="25700" activeTab="4" xr2:uid="{FB775EE3-F728-1F4A-933A-9B954A97E593}"/>
+    <workbookView xWindow="-20" yWindow="880" windowWidth="41120" windowHeight="25700" activeTab="8" xr2:uid="{FB775EE3-F728-1F4A-933A-9B954A97E593}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -8873,7 +8873,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0">
                   <c:v>54.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -39318,7 +39318,7 @@
   <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41422,8 +41422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6BAB3E-4D49-0144-8F38-10B79DA70DAE}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="E9:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41723,7 +41723,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42126,7 +42126,7 @@
       <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <f>AVERAGE(data!B37,data!D37)</f>
         <v>54.5</v>
       </c>
@@ -42165,7 +42165,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42923,8 +42923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D976B82F-A5AE-084F-A654-2486CBB157B8}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
